--- a/biology/Médecine/Syndrome_de_Bloom/Syndrome_de_Bloom.xlsx
+++ b/biology/Médecine/Syndrome_de_Bloom/Syndrome_de_Bloom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Bloom est une maladie génétique rare, autosomique récessive, qui se caractérise par :
@@ -521,7 +533,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic se fait par séquençage du gène BLM ; quand une mutation délétère est retrouvée sur les deux allèles du gène, le diagnostic est confirmé. Dans certains cas, l'anomalie génétique n'est pas décelée. Des analyses cytogénétiques sont alors réalisées et peuvent confirmer la maladie en identifiant une augmentation du taux d'échange entre les chromatides sœurs en comparaison avec des cellules normales lors de l'exposition à la bromodéoxyuridine. Cette anomalie est pathognomonique d'individus porteurs du syndrome de Bloom.
 </t>
@@ -552,10 +566,12 @@
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Si l'anomalie génétique est retrouvée, une recherche génétique est proposée aux parents. Le syndrome étant très rare, l'enquête génétique peut parfois trouver un ascendant commun aux parents de l'enfant. Un diagnostic pré-natal pourra également être proposé aux parents s'ils souhaitent un autre enfant.
-Effectivement, les cas connus restent très rares (plus ou moins 200[1] ou 300 selon les sources) et la prévalence du statut de porteur sain est elle-même très faible en dehors de la population juive ashkénaze (dont elle concerne 1% environ), où un surrisque de transmettre et de développer le syndrome ou sa version saine est associé à l'héritage médical particulier en rapport avec le faible brassage génétique[2].
+Effectivement, les cas connus restent très rares (plus ou moins 200 ou 300 selon les sources) et la prévalence du statut de porteur sain est elle-même très faible en dehors de la population juive ashkénaze (dont elle concerne 1% environ), où un surrisque de transmettre et de développer le syndrome ou sa version saine est associé à l'héritage médical particulier en rapport avec le faible brassage génétique.
 </t>
         </is>
       </c>
@@ -584,13 +600,15 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Syndrome de Bloom : une maladie rare, mais des découvertes universelles | Institut Curie » (consulté le 21 mai 2024)
 ↑ https://www.congres-sfe.com/2016/eposters/3d6fa095-7363-11e6-9efb-d97ff2406a52.pdf
 Page spécifique sur Orphanet
-(en) Maureen M Sanz, James German, Bloom's Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 [1]
+(en) Maureen M Sanz, James German, Bloom's Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 
 gene reviews</t>
         </is>
       </c>
